--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_23-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_23-49.xlsx
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>40:0</t>
-  </si>
-  <si>
-    <t>بودره نونو 200 ملل</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -3045,17 +3042,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3063,7 +3060,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3071,17 +3068,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3097,17 +3094,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3123,13 +3120,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3149,17 +3146,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3175,17 +3172,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3193,7 +3190,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3201,17 +3198,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3219,7 +3216,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3227,13 +3224,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3253,17 +3250,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3279,17 +3276,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3305,13 +3302,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3331,77 +3328,51 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="25.5" customHeight="1">
-      <c r="A95" s="6">
-        <v>92</v>
-      </c>
-      <c t="s" r="B95" s="7">
-        <v>127</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c t="s" r="H95" s="8">
+    <row r="95" ht="26.25" customHeight="1">
+      <c r="K95" s="11">
+        <v>6859.8500000000004</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="12">
         <v>128</v>
       </c>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9">
-        <v>45</v>
-      </c>
-      <c r="M95" s="9"/>
-      <c r="N95" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="11">
-        <v>6949.8500000000004</v>
-      </c>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="12">
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c t="s" r="F96" s="13">
         <v>129</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c t="s" r="F97" s="13">
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c t="s" r="I96" s="15">
         <v>130</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c t="s" r="I97" s="15">
-        <v>131</v>
-      </c>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="284">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3682,13 +3653,10 @@
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:N96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
